--- a/tests/fixtures/invalid-gramcat-empty.xlsx
+++ b/tests/fixtures/invalid-gramcat-empty.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">as</t>
   </si>
@@ -38,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -60,14 +57,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -120,20 +109,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -154,10 +135,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1069"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A3:C3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -171,25 +152,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
